--- a/DANLC.xlsx
+++ b/DANLC.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics No + Low Code(DANLC)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics No + Low Code(DANLC)\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A17D9-285E-4500-81D2-208B9889DA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA00926-AA03-4B93-B306-4162243A580C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FCA57A5F-4802-460D-AB9B-7A5E2B8AF231}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{FCA57A5F-4802-460D-AB9B-7A5E2B8AF231}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Functions" sheetId="1" r:id="rId1"/>
     <sheet name="Find, Replace, Sort &amp; Filter" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Validation" sheetId="5" r:id="rId3"/>
+    <sheet name="Conditional Formatting" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Find, Replace, Sort &amp; Filter'!$A$1:$B$26</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t>a</t>
   </si>
@@ -107,6 +109,93 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Akanksha</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CGPA</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Vineetha</t>
+  </si>
+  <si>
+    <t>Madhuvani</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Srivalli</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Jyothi</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Product A</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Product B</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Product C</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>1. Apply conditional formatting to highlight cells in the Sales column (D) with values greater than or equal to 150.</t>
+  </si>
+  <si>
+    <t>2. Apply conditional formatting to highlight the entire row for entries where the Product is "Product A".</t>
+  </si>
+  <si>
+    <t>3. Apply conditional formatting to highlight cells in the Date column (C) that fall within January 2024.</t>
+  </si>
+  <si>
+    <t>4. Apply conditional formatting to highlight the top 3 sales values in the Sales column (D).</t>
+  </si>
+  <si>
+    <t>5. Apply conditional formatting to highlight sales for "Product B" in the "North" region.</t>
   </si>
 </sst>
 </file>
@@ -150,14 +239,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -178,6 +324,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA5F983"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -190,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{68F21D9C-97BA-4CF7-BB15-66F500E1509A}" name="Table2" displayName="Table2" ref="A1:G12" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{68F21D9C-97BA-4CF7-BB15-66F500E1509A}" name="Table2" displayName="Table2" ref="A1:G12" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:G12" xr:uid="{68F21D9C-97BA-4CF7-BB15-66F500E1509A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -523,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52A8544-6E46-41AD-BA66-F0788C62D091}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -1057,4 +1208,933 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BE0F01-383D-4F13-8F4D-8B83F2472BCC}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>7.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2">
+        <v>36991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>6.23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2">
+        <v>36822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>7.9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37479</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Akanksha">
+      <formula>NOT(ISERROR(SEARCH("Akanksha",H9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Student ID must be 1 to 50" prompt="Student ID must be 1 to 50" sqref="A2:A11" xr:uid="{1AEE0762-C050-49EF-9434-EB61E0DBBB5C}">
+      <formula1>1</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Name must have 4 to 10 letters" prompt="Name must have 4 to 10 letters" sqref="B2:B11" xr:uid="{F66839C0-1CEF-490B-BF7A-384A26E2CF2C}">
+      <formula1>4</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="CGPA must be in between 4 to 10" prompt="CGPA must be in between 4 to 10" sqref="C2:C11" xr:uid="{C18AC3FC-13EB-4BC1-952B-EDB3F5E35B26}">
+      <formula1>4</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Grade must be in A,B,C,D,E" prompt="Grade must be in A,B,C,D,E" sqref="D2:D11" xr:uid="{1D13B90A-176A-4003-8F41-A2706956DE5C}">
+      <formula1>"A,B,C,D,E"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="DOB must be in 1-1-2000 to 31-12-2002" prompt="DOB must be in 1-1-2000 to 31-12-2002" sqref="E2:E11" xr:uid="{BA45F15E-8190-40D9-B941-7FD4E2C2AA6D}">
+      <formula1>36526</formula1>
+      <formula2>37621</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8475D5F-353D-4B39-A282-DE4F475F7ACD}">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D4" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45293</v>
+      </c>
+      <c r="D5" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45294</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45295</v>
+      </c>
+      <c r="D7" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45296</v>
+      </c>
+      <c r="D8" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45297</v>
+      </c>
+      <c r="D9" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45298</v>
+      </c>
+      <c r="D10" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45299</v>
+      </c>
+      <c r="D11" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D16" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45293</v>
+      </c>
+      <c r="D17" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45294</v>
+      </c>
+      <c r="D18" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45295</v>
+      </c>
+      <c r="D19" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45296</v>
+      </c>
+      <c r="D20" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45297</v>
+      </c>
+      <c r="D21" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45298</v>
+      </c>
+      <c r="D22" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45299</v>
+      </c>
+      <c r="D23" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D28" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45293</v>
+      </c>
+      <c r="D29" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45294</v>
+      </c>
+      <c r="D30" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45295</v>
+      </c>
+      <c r="D31" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45296</v>
+      </c>
+      <c r="D32" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45297</v>
+      </c>
+      <c r="D33" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45298</v>
+      </c>
+      <c r="D34" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45299</v>
+      </c>
+      <c r="D35" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D40" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45293</v>
+      </c>
+      <c r="D41" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45294</v>
+      </c>
+      <c r="D42" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45295</v>
+      </c>
+      <c r="D43" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45296</v>
+      </c>
+      <c r="D44" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5">
+        <v>45297</v>
+      </c>
+      <c r="D45" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45298</v>
+      </c>
+      <c r="D46" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="5">
+        <v>45299</v>
+      </c>
+      <c r="D47" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D52" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="5">
+        <v>45293</v>
+      </c>
+      <c r="D53" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="5">
+        <v>45294</v>
+      </c>
+      <c r="D54" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="5">
+        <v>45295</v>
+      </c>
+      <c r="D55" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="5">
+        <v>45296</v>
+      </c>
+      <c r="D56" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="5">
+        <v>45297</v>
+      </c>
+      <c r="D57" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45298</v>
+      </c>
+      <c r="D58" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="5">
+        <v>45299</v>
+      </c>
+      <c r="D59" s="4">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A13:J13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A16:A23">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Product A">
+      <formula>NOT(ISERROR(SEARCH("Product A",A16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:B59">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Product B">
+      <formula>NOT(ISERROR(SEARCH("Product B",A52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C35">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+      <formula>45292</formula>
+      <formula>45321</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D11">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+      <formula>149</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D47">
+    <cfRule type="top10" dxfId="0" priority="4" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1D194CA6-3A44-4070-92F4-9AE9A575006A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1D194CA6-3A44-4070-92F4-9AE9A575006A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>